--- a/ForeignWorkers(Type&Region).xlsx
+++ b/ForeignWorkers(Type&Region).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\性別政治\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F681A4A9-0F01-4DAC-8255-9ED009D0688B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCD8BDB-B6B1-402C-BACA-885B2068F089}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9630" windowHeight="5210" xr2:uid="{357D56B2-8D35-4015-B59C-D659775169ED}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>　　　</t>
   </si>
@@ -506,17 +506,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -524,17 +515,11 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -550,6 +535,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -866,718 +866,645 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426E5323-7C9A-4B63-81A2-4ADC11854B58}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7">
+        <v>56312</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2282</v>
+      </c>
+      <c r="D2" s="7">
+        <v>52252</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1778</v>
+      </c>
+      <c r="F2" s="7">
+        <v>35785</v>
+      </c>
+      <c r="G2" s="7">
+        <v>35595</v>
+      </c>
+      <c r="H2" s="9">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2521</v>
+      </c>
+      <c r="C3" s="9">
+        <v>114</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1075</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1332</v>
+      </c>
+      <c r="F3" s="7">
+        <v>36203</v>
+      </c>
+      <c r="G3" s="7">
+        <v>35702</v>
+      </c>
+      <c r="H3" s="9">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7">
+        <v>107395</v>
+      </c>
+      <c r="C4" s="9">
+        <v>331</v>
+      </c>
+      <c r="D4" s="7">
+        <v>102630</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4434</v>
+      </c>
+      <c r="F4" s="7">
+        <v>18391</v>
+      </c>
+      <c r="G4" s="7">
+        <v>18257</v>
+      </c>
+      <c r="H4" s="9">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="7">
+        <v>84004</v>
+      </c>
+      <c r="C5" s="9">
+        <v>318</v>
+      </c>
+      <c r="D5" s="7">
+        <v>82429</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1257</v>
+      </c>
+      <c r="F5" s="7">
+        <v>22670</v>
+      </c>
+      <c r="G5" s="7">
+        <v>22481</v>
+      </c>
+      <c r="H5" s="9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7">
+        <v>48124</v>
+      </c>
+      <c r="C6" s="9">
+        <v>422</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46737</v>
+      </c>
+      <c r="E6" s="9">
+        <v>965</v>
+      </c>
+      <c r="F6" s="7">
+        <v>14091</v>
+      </c>
+      <c r="G6" s="7">
+        <v>14038</v>
+      </c>
+      <c r="H6" s="9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="7">
+        <v>45785</v>
+      </c>
+      <c r="C7" s="9">
+        <v>963</v>
+      </c>
+      <c r="D7" s="7">
+        <v>42930</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1892</v>
+      </c>
+      <c r="F7" s="7">
+        <v>19007</v>
+      </c>
+      <c r="G7" s="7">
+        <v>18904</v>
+      </c>
+      <c r="H7" s="9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7">
+        <v>6747</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2153</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4508</v>
+      </c>
+      <c r="E8" s="9">
+        <v>86</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5750</v>
+      </c>
+      <c r="G8" s="7">
+        <v>5735</v>
+      </c>
+      <c r="H8" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="7">
+        <v>24252</v>
+      </c>
+      <c r="C9" s="9">
+        <v>130</v>
+      </c>
+      <c r="D9" s="7">
+        <v>23896</v>
+      </c>
+      <c r="E9" s="9">
+        <v>226</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5640</v>
+      </c>
+      <c r="G9" s="7">
+        <v>5607</v>
+      </c>
+      <c r="H9" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="7">
+        <v>15977</v>
+      </c>
+      <c r="C10" s="9">
+        <v>145</v>
+      </c>
+      <c r="D10" s="7">
+        <v>15757</v>
+      </c>
+      <c r="E10" s="9">
+        <v>75</v>
+      </c>
+      <c r="F10" s="7">
+        <v>6467</v>
+      </c>
+      <c r="G10" s="7">
+        <v>6449</v>
+      </c>
+      <c r="H10" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="7">
+        <v>49719</v>
+      </c>
+      <c r="C11" s="9">
+        <v>402</v>
+      </c>
+      <c r="D11" s="7">
+        <v>48916</v>
+      </c>
+      <c r="E11" s="9">
+        <v>401</v>
+      </c>
+      <c r="F11" s="7">
+        <v>10604</v>
+      </c>
+      <c r="G11" s="7">
+        <v>10544</v>
+      </c>
+      <c r="H11" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="7">
+        <v>8610</v>
+      </c>
+      <c r="C12" s="9">
+        <v>69</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8335</v>
+      </c>
+      <c r="E12" s="9">
+        <v>206</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5162</v>
+      </c>
+      <c r="G12" s="7">
+        <v>5140</v>
+      </c>
+      <c r="H12" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="7">
+        <v>14222</v>
+      </c>
+      <c r="C13" s="9">
+        <v>583</v>
+      </c>
+      <c r="D13" s="7">
+        <v>13435</v>
+      </c>
+      <c r="E13" s="9">
+        <v>204</v>
+      </c>
+      <c r="F13" s="7">
+        <v>7380</v>
+      </c>
+      <c r="G13" s="7">
+        <v>7360</v>
+      </c>
+      <c r="H13" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="7">
+        <v>7691</v>
+      </c>
+      <c r="C14" s="9">
+        <v>293</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7342</v>
+      </c>
+      <c r="E14" s="9">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7">
+        <v>5472</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5459</v>
+      </c>
+      <c r="H14" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="7">
+        <v>8878</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1332</v>
+      </c>
+      <c r="D15" s="7">
+        <v>7400</v>
+      </c>
+      <c r="E15" s="9">
+        <v>146</v>
+      </c>
+      <c r="F15" s="7">
+        <v>6518</v>
+      </c>
+      <c r="G15" s="7">
+        <v>6501</v>
+      </c>
+      <c r="H15" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="9">
+        <v>532</v>
+      </c>
+      <c r="C16" s="9">
+        <v>299</v>
+      </c>
+      <c r="D16" s="9">
+        <v>152</v>
+      </c>
+      <c r="E16" s="9">
+        <v>81</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1556</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1550</v>
+      </c>
+      <c r="H16" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1448</v>
+      </c>
+      <c r="C17" s="9">
+        <v>247</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1154</v>
+      </c>
+      <c r="E17" s="9">
+        <v>47</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3616</v>
+      </c>
+      <c r="G17" s="7">
+        <v>3609</v>
+      </c>
+      <c r="H17" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2180</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2097</v>
+      </c>
+      <c r="D18" s="9">
+        <v>44</v>
+      </c>
+      <c r="E18" s="9">
+        <v>39</v>
+      </c>
+      <c r="F18" s="9">
+        <v>762</v>
+      </c>
+      <c r="G18" s="9">
+        <v>760</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2323</v>
+      </c>
+      <c r="C19" s="9">
+        <v>785</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1524</v>
+      </c>
+      <c r="E19" s="9">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7">
+        <v>3387</v>
+      </c>
+      <c r="G19" s="7">
+        <v>3375</v>
+      </c>
+      <c r="H19" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="7">
+        <v>12796</v>
+      </c>
+      <c r="C20" s="9">
+        <v>126</v>
+      </c>
+      <c r="D20" s="7">
+        <v>12621</v>
+      </c>
+      <c r="E20" s="9">
+        <v>49</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4561</v>
+      </c>
+      <c r="G20" s="7">
+        <v>4529</v>
+      </c>
+      <c r="H20" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="9">
+        <v>844</v>
+      </c>
+      <c r="C21" s="9">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9">
+        <v>764</v>
+      </c>
+      <c r="E21" s="9">
+        <v>74</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2563</v>
+      </c>
+      <c r="G21" s="7">
+        <v>2548</v>
+      </c>
+      <c r="H21" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="9">
+        <v>216</v>
+      </c>
+      <c r="C22" s="9">
+        <v>67</v>
+      </c>
+      <c r="D22" s="9">
+        <v>59</v>
+      </c>
+      <c r="E22" s="9">
+        <v>90</v>
+      </c>
+      <c r="F22" s="9">
+        <v>673</v>
+      </c>
+      <c r="G22" s="9">
+        <v>666</v>
+      </c>
+      <c r="H22" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="9">
+        <v>155</v>
+      </c>
+      <c r="C23" s="9">
+        <v>70</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="9">
+        <v>85</v>
+      </c>
+      <c r="F23" s="9">
+        <v>112</v>
+      </c>
+      <c r="G23" s="9">
+        <v>111</v>
+      </c>
+      <c r="H23" s="9">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="10">
-        <v>92097</v>
-      </c>
-      <c r="C2" s="10">
-        <v>56312</v>
-      </c>
-      <c r="D2" s="10">
-        <v>2282</v>
-      </c>
-      <c r="E2" s="10">
-        <v>52252</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1778</v>
-      </c>
-      <c r="G2" s="10">
-        <v>35785</v>
-      </c>
-      <c r="H2" s="10">
-        <v>35595</v>
-      </c>
-      <c r="I2" s="13">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="10">
-        <v>38724</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2521</v>
-      </c>
-      <c r="D3" s="13">
-        <v>114</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1075</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1332</v>
-      </c>
-      <c r="G3" s="10">
-        <v>36203</v>
-      </c>
-      <c r="H3" s="10">
-        <v>35702</v>
-      </c>
-      <c r="I3" s="13">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="10">
-        <v>125786</v>
-      </c>
-      <c r="C4" s="10">
-        <v>107395</v>
-      </c>
-      <c r="D4" s="13">
-        <v>331</v>
-      </c>
-      <c r="E4" s="10">
-        <v>102630</v>
-      </c>
-      <c r="F4" s="10">
-        <v>4434</v>
-      </c>
-      <c r="G4" s="10">
-        <v>18391</v>
-      </c>
-      <c r="H4" s="10">
-        <v>18257</v>
-      </c>
-      <c r="I4" s="13">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="10">
-        <v>106674</v>
-      </c>
-      <c r="C5" s="10">
-        <v>84004</v>
-      </c>
-      <c r="D5" s="13">
-        <v>318</v>
-      </c>
-      <c r="E5" s="10">
-        <v>82429</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1257</v>
-      </c>
-      <c r="G5" s="10">
-        <v>22670</v>
-      </c>
-      <c r="H5" s="10">
-        <v>22481</v>
-      </c>
-      <c r="I5" s="13">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="10">
-        <v>62215</v>
-      </c>
-      <c r="C6" s="10">
-        <v>48124</v>
-      </c>
-      <c r="D6" s="13">
-        <v>422</v>
-      </c>
-      <c r="E6" s="10">
-        <v>46737</v>
-      </c>
-      <c r="F6" s="13">
-        <v>965</v>
-      </c>
-      <c r="G6" s="10">
-        <v>14091</v>
-      </c>
-      <c r="H6" s="10">
-        <v>14038</v>
-      </c>
-      <c r="I6" s="13">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="10">
-        <v>64792</v>
-      </c>
-      <c r="C7" s="10">
-        <v>45785</v>
-      </c>
-      <c r="D7" s="13">
-        <v>963</v>
-      </c>
-      <c r="E7" s="10">
-        <v>42930</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1892</v>
-      </c>
-      <c r="G7" s="10">
-        <v>19007</v>
-      </c>
-      <c r="H7" s="10">
-        <v>18904</v>
-      </c>
-      <c r="I7" s="13">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="10">
-        <v>12497</v>
-      </c>
-      <c r="C8" s="10">
-        <v>6747</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2153</v>
-      </c>
-      <c r="E8" s="10">
-        <v>4508</v>
-      </c>
-      <c r="F8" s="13">
-        <v>86</v>
-      </c>
-      <c r="G8" s="10">
-        <v>5750</v>
-      </c>
-      <c r="H8" s="10">
-        <v>5735</v>
-      </c>
-      <c r="I8" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="10">
-        <v>29892</v>
-      </c>
-      <c r="C9" s="10">
-        <v>24252</v>
-      </c>
-      <c r="D9" s="13">
-        <v>130</v>
-      </c>
-      <c r="E9" s="10">
-        <v>23896</v>
-      </c>
-      <c r="F9" s="13">
-        <v>226</v>
-      </c>
-      <c r="G9" s="10">
-        <v>5640</v>
-      </c>
-      <c r="H9" s="10">
-        <v>5607</v>
-      </c>
-      <c r="I9" s="13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="10">
-        <v>22444</v>
-      </c>
-      <c r="C10" s="10">
-        <v>15977</v>
-      </c>
-      <c r="D10" s="13">
-        <v>145</v>
-      </c>
-      <c r="E10" s="10">
-        <v>15757</v>
-      </c>
-      <c r="F10" s="13">
-        <v>75</v>
-      </c>
-      <c r="G10" s="10">
-        <v>6467</v>
-      </c>
-      <c r="H10" s="10">
-        <v>6449</v>
-      </c>
-      <c r="I10" s="13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="10">
-        <v>60323</v>
-      </c>
-      <c r="C11" s="10">
-        <v>49719</v>
-      </c>
-      <c r="D11" s="13">
-        <v>402</v>
-      </c>
-      <c r="E11" s="10">
-        <v>48916</v>
-      </c>
-      <c r="F11" s="13">
-        <v>401</v>
-      </c>
-      <c r="G11" s="10">
-        <v>10604</v>
-      </c>
-      <c r="H11" s="10">
-        <v>10544</v>
-      </c>
-      <c r="I11" s="13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="10">
-        <v>13772</v>
-      </c>
-      <c r="C12" s="10">
-        <v>8610</v>
-      </c>
-      <c r="D12" s="13">
-        <v>69</v>
-      </c>
-      <c r="E12" s="10">
-        <v>8335</v>
-      </c>
-      <c r="F12" s="13">
-        <v>206</v>
-      </c>
-      <c r="G12" s="10">
-        <v>5162</v>
-      </c>
-      <c r="H12" s="10">
-        <v>5140</v>
-      </c>
-      <c r="I12" s="13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="10">
-        <v>21602</v>
-      </c>
-      <c r="C13" s="10">
-        <v>14222</v>
-      </c>
-      <c r="D13" s="13">
-        <v>583</v>
-      </c>
-      <c r="E13" s="10">
-        <v>13435</v>
-      </c>
-      <c r="F13" s="13">
-        <v>204</v>
-      </c>
-      <c r="G13" s="10">
-        <v>7380</v>
-      </c>
-      <c r="H13" s="10">
-        <v>7360</v>
-      </c>
-      <c r="I13" s="13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="10">
-        <v>13163</v>
-      </c>
-      <c r="C14" s="10">
-        <v>7691</v>
-      </c>
-      <c r="D14" s="13">
-        <v>293</v>
-      </c>
-      <c r="E14" s="10">
-        <v>7342</v>
-      </c>
-      <c r="F14" s="13">
-        <v>56</v>
-      </c>
-      <c r="G14" s="10">
-        <v>5472</v>
-      </c>
-      <c r="H14" s="10">
-        <v>5459</v>
-      </c>
-      <c r="I14" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="10">
-        <v>15396</v>
-      </c>
-      <c r="C15" s="10">
-        <v>8878</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1332</v>
-      </c>
-      <c r="E15" s="10">
-        <v>7400</v>
-      </c>
-      <c r="F15" s="13">
-        <v>146</v>
-      </c>
-      <c r="G15" s="10">
-        <v>6518</v>
-      </c>
-      <c r="H15" s="10">
-        <v>6501</v>
-      </c>
-      <c r="I15" s="13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="10">
-        <v>2088</v>
-      </c>
-      <c r="C16" s="13">
-        <v>532</v>
-      </c>
-      <c r="D16" s="13">
-        <v>299</v>
-      </c>
-      <c r="E16" s="13">
-        <v>152</v>
-      </c>
-      <c r="F16" s="13">
-        <v>81</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1556</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1550</v>
-      </c>
-      <c r="I16" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="10">
-        <v>5064</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1448</v>
-      </c>
-      <c r="D17" s="13">
-        <v>247</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1154</v>
-      </c>
-      <c r="F17" s="13">
-        <v>47</v>
-      </c>
-      <c r="G17" s="10">
-        <v>3616</v>
-      </c>
-      <c r="H17" s="10">
-        <v>3609</v>
-      </c>
-      <c r="I17" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="10">
-        <v>2942</v>
-      </c>
-      <c r="C18" s="10">
-        <v>2180</v>
-      </c>
-      <c r="D18" s="10">
-        <v>2097</v>
-      </c>
-      <c r="E18" s="13">
-        <v>44</v>
-      </c>
-      <c r="F18" s="13">
-        <v>39</v>
-      </c>
-      <c r="G18" s="13">
-        <v>762</v>
-      </c>
-      <c r="H18" s="13">
-        <v>760</v>
-      </c>
-      <c r="I18" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="10">
-        <v>5710</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2323</v>
-      </c>
-      <c r="D19" s="13">
-        <v>785</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1524</v>
-      </c>
-      <c r="F19" s="13">
-        <v>14</v>
-      </c>
-      <c r="G19" s="10">
-        <v>3387</v>
-      </c>
-      <c r="H19" s="10">
-        <v>3375</v>
-      </c>
-      <c r="I19" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="10">
-        <v>17357</v>
-      </c>
-      <c r="C20" s="10">
-        <v>12796</v>
-      </c>
-      <c r="D20" s="13">
-        <v>126</v>
-      </c>
-      <c r="E20" s="10">
-        <v>12621</v>
-      </c>
-      <c r="F20" s="13">
-        <v>49</v>
-      </c>
-      <c r="G20" s="10">
-        <v>4561</v>
-      </c>
-      <c r="H20" s="10">
-        <v>4529</v>
-      </c>
-      <c r="I20" s="13">
+    </row>
+    <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="10">
-        <v>3407</v>
-      </c>
-      <c r="C21" s="13">
-        <v>844</v>
-      </c>
-      <c r="D21" s="13">
-        <v>6</v>
-      </c>
-      <c r="E21" s="13">
-        <v>764</v>
-      </c>
-      <c r="F21" s="13">
-        <v>74</v>
-      </c>
-      <c r="G21" s="10">
-        <v>2563</v>
-      </c>
-      <c r="H21" s="10">
-        <v>2548</v>
-      </c>
-      <c r="I21" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="13">
-        <v>889</v>
-      </c>
-      <c r="C22" s="13">
-        <v>216</v>
-      </c>
-      <c r="D22" s="13">
-        <v>67</v>
-      </c>
-      <c r="E22" s="13">
-        <v>59</v>
-      </c>
-      <c r="F22" s="13">
-        <v>90</v>
-      </c>
-      <c r="G22" s="13">
-        <v>673</v>
-      </c>
-      <c r="H22" s="13">
-        <v>666</v>
-      </c>
-      <c r="I22" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="13">
-        <v>267</v>
-      </c>
-      <c r="C23" s="13">
-        <v>155</v>
-      </c>
-      <c r="D23" s="13">
-        <v>70</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="C24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="13">
-        <v>85</v>
-      </c>
-      <c r="G23" s="13">
-        <v>112</v>
-      </c>
-      <c r="H23" s="13">
-        <v>111</v>
-      </c>
-      <c r="I23" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="13" t="s">
+      <c r="D24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="E24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="F24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="G24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1599,7 +1526,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="1"/>
@@ -1612,752 +1539,752 @@
       <c r="I1" s="1"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="68" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <v>717101</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>500731</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>13234</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="7">
         <v>473960</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="7">
         <v>13537</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="7">
         <v>216370</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="7">
         <v>214920</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="7">
         <v>1450</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <v>92097</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>56312</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>2282</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <v>52252</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="7">
         <v>1778</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <v>35785</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <v>35595</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>38724</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>2521</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="9">
         <v>114</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <v>1075</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>1332</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <v>36203</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <v>35702</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="9">
         <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <v>125786</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>107395</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="9">
         <v>331</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <v>102630</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="7">
         <v>4434</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="7">
         <v>18391</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="7">
         <v>18257</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="9">
         <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>106674</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>84004</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="9">
         <v>318</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <v>82429</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <v>1257</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <v>22670</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="7">
         <v>22481</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="9">
         <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>62215</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>48124</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="9">
         <v>422</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <v>46737</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="9">
         <v>965</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="7">
         <v>14091</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="7">
         <v>14038</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="9">
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>64792</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>45785</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="9">
         <v>963</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <v>42930</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="7">
         <v>1892</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <v>19007</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="7">
         <v>18904</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="9">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>12497</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>6747</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>2153</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>4508</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="9">
         <v>86</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="7">
         <v>5750</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="7">
         <v>5735</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>29892</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>24252</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="9">
         <v>130</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <v>23896</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="9">
         <v>226</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <v>5640</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="7">
         <v>5607</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="9">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>22444</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>15977</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="9">
         <v>145</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>15757</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="9">
         <v>75</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>6467</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <v>6449</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>60323</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>49719</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="9">
         <v>402</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="7">
         <v>48916</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="9">
         <v>401</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="7">
         <v>10604</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="7">
         <v>10544</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>13772</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>8610</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="9">
         <v>69</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="7">
         <v>8335</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="9">
         <v>206</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="7">
         <v>5162</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="7">
         <v>5140</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="9">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>21602</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <v>14222</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="9">
         <v>583</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <v>13435</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="9">
         <v>204</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="7">
         <v>7380</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="7">
         <v>7360</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>13163</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="7">
         <v>7691</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="9">
         <v>293</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="7">
         <v>7342</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="9">
         <v>56</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="7">
         <v>5472</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="7">
         <v>5459</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="9">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>15396</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>8878</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="7">
         <v>1332</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <v>7400</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="9">
         <v>146</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="7">
         <v>6518</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="7">
         <v>6501</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="9">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="7">
         <v>2088</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="9">
         <v>532</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="9">
         <v>299</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="9">
         <v>152</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="9">
         <v>81</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="7">
         <v>1556</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="7">
         <v>1550</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="7">
         <v>5064</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <v>1448</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="9">
         <v>247</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="7">
         <v>1154</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="9">
         <v>47</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="7">
         <v>3616</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="7">
         <v>3609</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <v>2942</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <v>2180</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="7">
         <v>2097</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="9">
         <v>44</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="9">
         <v>39</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="9">
         <v>762</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="9">
         <v>760</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="7">
         <v>5710</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <v>2323</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="9">
         <v>785</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="7">
         <v>1524</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="9">
         <v>14</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="7">
         <v>3387</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="7">
         <v>3375</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>17357</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="7">
         <v>12796</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="9">
         <v>126</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="7">
         <v>12621</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="9">
         <v>49</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="7">
         <v>4561</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="7">
         <v>4529</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="9">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>3407</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="9">
         <v>844</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="9">
         <v>6</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="9">
         <v>764</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="9">
         <v>74</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="7">
         <v>2563</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="7">
         <v>2548</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="9">
         <v>889</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="9">
         <v>216</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="9">
         <v>67</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="9">
         <v>59</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="9">
         <v>90</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="9">
         <v>673</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="9">
         <v>666</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="9">
         <v>267</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="9">
         <v>155</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="9">
         <v>70</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="9">
         <v>85</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="9">
         <v>112</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="9">
         <v>111</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="14"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="9" t="s">
         <v>32</v>
       </c>
       <c r="J26" s="4"/>
